--- a/data/excel_file/crows_gpt3.xlsx
+++ b/data/excel_file/crows_gpt3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/data/excel_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="652" documentId="11_0D6962EDFAF3C911832D4CD01DAF1F277973D353" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B73156A-4713-4E03-BF05-6D2507A0AC2E}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="11_0D6962EDFAF3C911832D4CD01DAF1F277973D353" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81A2D1F-A7C6-44DA-8B90-1FEF8158091A}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13442,11 +13442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13454,8 +13453,8 @@
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="70.06640625" customWidth="1"/>
     <col min="4" max="4" width="69.53125" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="135.265625" customWidth="1"/>
     <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.46484375" customWidth="1"/>
     <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -13538,7 +13537,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13567,7 +13566,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13794,7 +13793,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14006,7 +14005,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14125,7 +14124,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14279,7 +14278,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14366,7 +14365,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14459,7 +14458,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14517,7 +14516,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14645,7 +14644,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14674,7 +14673,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14732,7 +14731,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -15098,7 +15097,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15296,7 +15295,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15392,7 +15391,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15450,7 +15449,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15578,7 +15577,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15642,7 +15641,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15700,7 +15699,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15793,7 +15792,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16078,7 +16077,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16165,7 +16164,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -16325,7 +16324,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -16680,7 +16679,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -16709,7 +16708,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -16895,7 +16894,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -16988,7 +16987,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -17017,7 +17016,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -17223,7 +17222,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -17252,7 +17251,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -17409,7 +17408,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -17470,7 +17469,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -17499,7 +17498,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -17528,7 +17527,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -17615,7 +17614,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -17807,7 +17806,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -17999,7 +17998,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -18028,7 +18027,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -18252,7 +18251,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -18281,7 +18280,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -18310,7 +18309,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -18374,7 +18373,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -18627,7 +18626,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -18659,7 +18658,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -18691,7 +18690,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -18921,7 +18920,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -18979,7 +18978,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -19078,7 +19077,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -19107,7 +19106,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -19136,7 +19135,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -19197,7 +19196,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -19226,7 +19225,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -19354,7 +19353,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -19421,7 +19420,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -19450,7 +19449,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -19511,7 +19510,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -19569,7 +19568,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -19598,7 +19597,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -19633,7 +19632,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -19662,7 +19661,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -19691,7 +19690,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -19755,7 +19754,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -19883,7 +19882,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -20008,7 +20007,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -20040,7 +20039,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -20136,7 +20135,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -20165,7 +20164,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -20194,7 +20193,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -20223,7 +20222,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -20258,7 +20257,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -20319,7 +20318,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -20383,7 +20382,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -20412,7 +20411,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -20441,7 +20440,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20470,7 +20469,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20563,7 +20562,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20592,7 +20591,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -20621,7 +20620,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -20650,7 +20649,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -20679,7 +20678,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -20714,7 +20713,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -20743,7 +20742,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -20772,7 +20771,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -20868,7 +20867,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -20929,7 +20928,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -20958,7 +20957,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -21092,7 +21091,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -21156,7 +21155,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -21220,7 +21219,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -21281,7 +21280,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -21310,7 +21309,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -21444,7 +21443,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -21473,7 +21472,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -21502,7 +21501,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -21563,7 +21562,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -21656,7 +21655,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -21685,7 +21684,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -21714,7 +21713,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -21743,7 +21742,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -21772,7 +21771,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -21801,7 +21800,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -21865,7 +21864,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -21894,7 +21893,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -21923,7 +21922,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -21952,7 +21951,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -22045,7 +22044,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -22278,7 +22277,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -22307,7 +22306,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -22400,7 +22399,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -22432,7 +22431,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -22461,7 +22460,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -22528,7 +22527,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -22560,7 +22559,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -22592,7 +22591,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -22621,7 +22620,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -22752,7 +22751,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -22880,7 +22879,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -22909,7 +22908,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -22973,7 +22972,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -23008,7 +23007,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -23040,7 +23039,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -23104,7 +23103,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -23133,7 +23132,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -23162,7 +23161,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -23191,7 +23190,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -23453,7 +23452,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -23511,7 +23510,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -23540,7 +23539,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -23604,7 +23603,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -23633,7 +23632,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -23729,7 +23728,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -23793,7 +23792,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -23860,7 +23859,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -23889,7 +23888,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -23918,7 +23917,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -23947,7 +23946,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -23976,7 +23975,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -24066,7 +24065,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -24098,7 +24097,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -24127,7 +24126,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -24258,7 +24257,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -24287,7 +24286,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -24348,7 +24347,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -24377,7 +24376,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -24406,7 +24405,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -24435,7 +24434,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -24464,7 +24463,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -24493,7 +24492,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -24525,7 +24524,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -24589,7 +24588,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -24621,7 +24620,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -24711,7 +24710,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -24740,7 +24739,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -24769,7 +24768,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -24958,7 +24957,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -24987,7 +24986,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -25083,7 +25082,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -25112,7 +25111,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -25205,7 +25204,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -25234,7 +25233,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -25263,7 +25262,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -25292,7 +25291,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -25321,7 +25320,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -25350,7 +25349,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -25411,7 +25410,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -25475,7 +25474,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -25504,7 +25503,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -25533,7 +25532,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -25565,7 +25564,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -25594,7 +25593,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -25623,7 +25622,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -25652,7 +25651,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -25681,7 +25680,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -25742,7 +25741,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -25803,7 +25802,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -25832,7 +25831,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -25861,7 +25860,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -25925,7 +25924,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -25957,7 +25956,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -25986,7 +25985,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -26015,7 +26014,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -26076,7 +26075,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -26105,7 +26104,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -26169,7 +26168,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -26230,7 +26229,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -26259,7 +26258,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -26355,7 +26354,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -26384,7 +26383,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -26477,7 +26476,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -26506,7 +26505,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -26535,7 +26534,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -26599,7 +26598,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -26692,7 +26691,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -26721,7 +26720,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -26750,7 +26749,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -26779,7 +26778,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -26872,7 +26871,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -26933,7 +26932,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -26965,7 +26964,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -27026,7 +27025,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -27122,7 +27121,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -27151,7 +27150,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -27180,7 +27179,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -27247,7 +27246,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -27308,7 +27307,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -27340,7 +27339,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -27439,7 +27438,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -27500,7 +27499,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -27529,7 +27528,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -27558,7 +27557,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -27587,7 +27586,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -27616,7 +27615,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -27645,7 +27644,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -27706,7 +27705,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -27767,7 +27766,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -27828,7 +27827,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -27889,7 +27888,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -28017,7 +28016,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -28046,7 +28045,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -28081,7 +28080,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -28110,7 +28109,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -28171,7 +28170,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -28200,7 +28199,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -28232,7 +28231,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -28293,7 +28292,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -28322,7 +28321,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -28418,7 +28417,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -28447,7 +28446,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -28543,7 +28542,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -28572,7 +28571,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -28604,7 +28603,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -28633,7 +28632,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -28662,7 +28661,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -28691,7 +28690,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -28720,7 +28719,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -28749,7 +28748,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -28810,7 +28809,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -28839,7 +28838,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -28868,7 +28867,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -28897,7 +28896,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -28926,7 +28925,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -28955,7 +28954,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -28984,7 +28983,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -29013,7 +29012,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -29074,7 +29073,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -29103,7 +29102,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -29132,7 +29131,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -29193,7 +29192,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -29254,7 +29253,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -29283,7 +29282,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -29312,7 +29311,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -29341,7 +29340,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -29437,7 +29436,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -29466,7 +29465,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -29527,7 +29526,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -29556,7 +29555,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -29585,7 +29584,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -29646,7 +29645,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -29675,7 +29674,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -29707,7 +29706,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -29742,7 +29741,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -29838,7 +29837,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -29902,7 +29901,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -29931,7 +29930,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -30024,7 +30023,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -30053,7 +30052,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -30082,7 +30081,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -30111,7 +30110,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -30140,7 +30139,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -30169,7 +30168,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -30204,7 +30203,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -30233,7 +30232,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -30262,7 +30261,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -30326,7 +30325,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -30422,7 +30421,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -30451,7 +30450,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -30480,7 +30479,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -30509,7 +30508,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -30538,7 +30537,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -30567,7 +30566,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -30596,7 +30595,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -30625,7 +30624,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -30654,7 +30653,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -30683,7 +30682,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -30712,7 +30711,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -30808,7 +30807,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -30904,7 +30903,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -30933,7 +30932,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -30962,7 +30961,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -30991,7 +30990,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -31061,7 +31060,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -31125,7 +31124,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -31154,7 +31153,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -31183,7 +31182,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -31244,7 +31243,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -31273,7 +31272,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -31305,7 +31304,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -31334,7 +31333,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -31363,7 +31362,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -31427,7 +31426,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -31523,7 +31522,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -31552,7 +31551,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -31581,7 +31580,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -31677,7 +31676,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -31738,7 +31737,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -31770,7 +31769,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -31799,7 +31798,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -31892,7 +31891,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -31921,7 +31920,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -31988,7 +31987,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -32020,7 +32019,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -32049,7 +32048,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -32113,7 +32112,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -32177,7 +32176,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -32270,7 +32269,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -32331,7 +32330,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -32360,7 +32359,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -32421,7 +32420,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -32482,7 +32481,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -32511,7 +32510,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -32540,7 +32539,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -32604,7 +32603,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -32633,7 +32632,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -32662,7 +32661,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -32691,7 +32690,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -32720,7 +32719,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -32752,7 +32751,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -32845,7 +32844,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -32874,7 +32873,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -32903,7 +32902,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -32967,7 +32966,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -32996,7 +32995,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -33025,7 +33024,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -33054,7 +33053,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -33121,7 +33120,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -33214,7 +33213,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -33243,7 +33242,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -33304,7 +33303,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -33368,7 +33367,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -33429,7 +33428,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -33490,7 +33489,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -33519,7 +33518,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -33548,7 +33547,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -33676,7 +33675,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -33711,7 +33710,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -33775,7 +33774,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -33804,7 +33803,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -33833,7 +33832,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -33862,7 +33861,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -33891,7 +33890,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -33920,7 +33919,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -33952,7 +33951,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -34013,7 +34012,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -34042,7 +34041,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -34103,7 +34102,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -34132,7 +34131,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -34161,7 +34160,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -34225,7 +34224,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -34254,7 +34253,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -34283,7 +34282,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -34312,7 +34311,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -34341,7 +34340,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -34402,7 +34401,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -34431,7 +34430,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -34460,7 +34459,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -34489,7 +34488,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -34521,7 +34520,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -34582,7 +34581,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -34611,7 +34610,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -34640,7 +34639,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -34701,7 +34700,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -34794,7 +34793,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -34826,7 +34825,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -34855,7 +34854,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -34916,7 +34915,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -34945,7 +34944,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -34974,7 +34973,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -35003,7 +35002,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -35067,7 +35066,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -35096,7 +35095,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -35128,7 +35127,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -35157,7 +35156,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -35186,7 +35185,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -35247,7 +35246,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -35276,7 +35275,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -35305,7 +35304,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -35366,7 +35365,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -35395,7 +35394,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -35424,7 +35423,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -35453,7 +35452,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -35488,7 +35487,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -35517,7 +35516,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -35613,7 +35612,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -35642,7 +35641,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -35671,7 +35670,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -35700,7 +35699,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -35764,7 +35763,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -35796,7 +35795,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -35828,7 +35827,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -35889,7 +35888,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -35918,7 +35917,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -35953,7 +35952,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -35982,7 +35981,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -36017,7 +36016,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -36078,7 +36077,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -36107,7 +36106,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -36136,7 +36135,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -36197,7 +36196,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -36226,7 +36225,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -36255,7 +36254,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -36284,7 +36283,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -36313,7 +36312,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -36441,7 +36440,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -36470,7 +36469,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -36566,7 +36565,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -36633,7 +36632,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -36662,7 +36661,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -36726,7 +36725,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -36787,7 +36786,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -36816,7 +36815,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -36845,7 +36844,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -36877,7 +36876,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -36941,7 +36940,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -37066,7 +37065,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -37095,7 +37094,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -37191,7 +37190,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -37252,7 +37251,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -37281,7 +37280,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -37310,7 +37309,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -37339,7 +37338,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -37368,7 +37367,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -37464,7 +37463,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -37493,7 +37492,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -37525,7 +37524,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -37554,7 +37553,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -37618,7 +37617,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -37647,7 +37646,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -37676,7 +37675,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -37705,7 +37704,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -37734,7 +37733,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -37763,7 +37762,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -37792,7 +37791,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -37821,7 +37820,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -37850,7 +37849,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -37879,7 +37878,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -37908,7 +37907,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -37937,7 +37936,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -38033,7 +38032,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -38062,7 +38061,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -38091,7 +38090,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -38120,7 +38119,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -38149,7 +38148,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -38274,7 +38273,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -38303,7 +38302,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -38332,7 +38331,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -38361,7 +38360,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -38390,7 +38389,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -38454,7 +38453,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -38483,7 +38482,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -38582,7 +38581,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -38611,7 +38610,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -38672,7 +38671,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -38701,7 +38700,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -38730,7 +38729,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -38759,7 +38758,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -38823,7 +38822,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -38855,7 +38854,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -38919,7 +38918,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -38983,7 +38982,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -39044,7 +39043,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -39073,7 +39072,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -39102,7 +39101,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -39131,7 +39130,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -39160,7 +39159,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -39189,7 +39188,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -39221,7 +39220,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -39250,7 +39249,7 @@
         <v>3989</v>
       </c>
     </row>
-    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -39413,7 +39412,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -39506,7 +39505,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -39535,7 +39534,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -39567,7 +39566,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -39596,7 +39595,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -39625,7 +39624,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -39654,7 +39653,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -39683,7 +39682,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -39712,7 +39711,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -39773,7 +39772,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -39802,7 +39801,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -39831,7 +39830,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -39860,7 +39859,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -39889,7 +39888,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -39918,7 +39917,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -39947,7 +39946,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -39976,7 +39975,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -40005,7 +40004,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -40034,7 +40033,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -40063,7 +40062,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -40095,7 +40094,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -40124,7 +40123,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -40153,7 +40152,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -40182,7 +40181,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -40211,7 +40210,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -40272,7 +40271,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -40301,7 +40300,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -40362,7 +40361,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -40391,7 +40390,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -40452,7 +40451,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -40481,7 +40480,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -40510,7 +40509,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -40539,7 +40538,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="881" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -40568,7 +40567,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="882" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -40597,7 +40596,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="883" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -40632,7 +40631,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -40670,7 +40669,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -40699,7 +40698,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -40731,7 +40730,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -40795,7 +40794,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -40824,7 +40823,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -40853,7 +40852,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -40882,7 +40881,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="892" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -40914,7 +40913,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="893" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -40943,7 +40942,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -40972,7 +40971,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -41065,7 +41064,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="898" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -41161,7 +41160,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -41222,7 +41221,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -41283,7 +41282,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -41350,7 +41349,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -41379,7 +41378,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -41408,7 +41407,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -41437,7 +41436,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -41501,7 +41500,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -41530,7 +41529,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -41591,7 +41590,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A915" s="1">
         <v>913</v>
       </c>
@@ -41620,7 +41619,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -41649,7 +41648,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -41710,7 +41709,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -41771,7 +41770,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -41832,7 +41831,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -41899,7 +41898,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -41928,7 +41927,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -41957,7 +41956,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -42021,7 +42020,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -42149,7 +42148,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -42178,7 +42177,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -42207,7 +42206,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -42239,7 +42238,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -42268,7 +42267,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -42297,7 +42296,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -42326,7 +42325,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -42355,7 +42354,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -42384,7 +42383,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -42413,7 +42412,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -42474,7 +42473,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -42503,7 +42502,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -42532,7 +42531,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -42564,7 +42563,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -42625,7 +42624,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -42654,7 +42653,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A950" s="1">
         <v>948</v>
       </c>
@@ -42686,7 +42685,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -42747,7 +42746,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -42776,7 +42775,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -42805,7 +42804,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -42834,7 +42833,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -42895,7 +42894,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -42956,7 +42955,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A960" s="1">
         <v>958</v>
       </c>
@@ -43020,7 +43019,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A962" s="1">
         <v>960</v>
       </c>
@@ -43049,7 +43048,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A963" s="1">
         <v>961</v>
       </c>
@@ -43110,7 +43109,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A965" s="1">
         <v>963</v>
       </c>
@@ -43139,7 +43138,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A966" s="1">
         <v>964</v>
       </c>
@@ -43200,7 +43199,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A968" s="1">
         <v>966</v>
       </c>
@@ -43264,7 +43263,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="970" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A970" s="1">
         <v>968</v>
       </c>
@@ -43325,7 +43324,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A972" s="1">
         <v>970</v>
       </c>
@@ -43386,7 +43385,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -43450,7 +43449,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="976" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -43479,7 +43478,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -43508,7 +43507,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A978" s="1">
         <v>976</v>
       </c>
@@ -43537,7 +43536,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A979" s="1">
         <v>977</v>
       </c>
@@ -43566,7 +43565,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A980" s="1">
         <v>978</v>
       </c>
@@ -43627,7 +43626,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="982" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A982" s="1">
         <v>980</v>
       </c>
@@ -43691,7 +43690,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A984" s="1">
         <v>982</v>
       </c>
@@ -43720,7 +43719,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A985" s="1">
         <v>983</v>
       </c>
@@ -43784,7 +43783,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="987" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A987" s="1">
         <v>985</v>
       </c>
@@ -43877,7 +43876,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="990" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A990" s="1">
         <v>988</v>
       </c>
@@ -43912,7 +43911,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="991" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A991" s="1">
         <v>989</v>
       </c>
@@ -43973,7 +43972,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="993" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A993" s="1">
         <v>991</v>
       </c>
@@ -44002,7 +44001,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="994" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A994" s="1">
         <v>992</v>
       </c>
@@ -44031,7 +44030,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="995" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A995" s="1">
         <v>993</v>
       </c>
@@ -44092,7 +44091,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="997" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A997" s="1">
         <v>995</v>
       </c>
@@ -44153,7 +44152,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="999" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A999" s="1">
         <v>997</v>
       </c>
@@ -44182,7 +44181,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1000" s="1">
         <v>998</v>
       </c>
@@ -44211,7 +44210,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1001" s="1">
         <v>999</v>
       </c>
@@ -44304,7 +44303,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1004" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1004" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1004" s="1">
         <v>1002</v>
       </c>
@@ -44333,7 +44332,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1005" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1005" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1005" s="1">
         <v>1003</v>
       </c>
@@ -44362,7 +44361,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="1006" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1006" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1006" s="1">
         <v>1004</v>
       </c>
@@ -44394,7 +44393,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1007" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1007" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1007" s="1">
         <v>1005</v>
       </c>
@@ -44455,7 +44454,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1009" s="1">
         <v>1007</v>
       </c>
@@ -44487,7 +44486,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1010" s="1">
         <v>1008</v>
       </c>
@@ -44586,7 +44585,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1013" s="1">
         <v>1011</v>
       </c>
@@ -44615,7 +44614,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1014" s="1">
         <v>1012</v>
       </c>
@@ -44676,7 +44675,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1016" s="1">
         <v>1014</v>
       </c>
@@ -44708,7 +44707,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1017" s="1">
         <v>1015</v>
       </c>
@@ -44772,7 +44771,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1019" s="1">
         <v>1017</v>
       </c>
@@ -44807,7 +44806,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1020" s="1">
         <v>1018</v>
       </c>
@@ -44836,7 +44835,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1021" s="1">
         <v>1019</v>
       </c>
@@ -44868,7 +44867,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1022" s="1">
         <v>1020</v>
       </c>
@@ -44967,7 +44966,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1025" s="1">
         <v>1023</v>
       </c>
@@ -45101,7 +45100,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1029" s="1">
         <v>1027</v>
       </c>
@@ -45130,7 +45129,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1030" s="1">
         <v>1028</v>
       </c>
@@ -45194,7 +45193,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1032" s="1">
         <v>1030</v>
       </c>
@@ -45223,7 +45222,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1033" s="1">
         <v>1031</v>
       </c>
@@ -45252,7 +45251,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1034" s="1">
         <v>1032</v>
       </c>
@@ -45348,7 +45347,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1037" s="1">
         <v>1035</v>
       </c>
@@ -45441,7 +45440,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1040" s="1">
         <v>1038</v>
       </c>
@@ -45470,7 +45469,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1041" s="1">
         <v>1039</v>
       </c>
@@ -45499,7 +45498,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1042" s="1">
         <v>1040</v>
       </c>
@@ -45528,7 +45527,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1043" s="1">
         <v>1041</v>
       </c>
@@ -45557,7 +45556,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1044" s="1">
         <v>1042</v>
       </c>
@@ -45586,7 +45585,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1045" s="1">
         <v>1043</v>
       </c>
@@ -45615,7 +45614,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1046" s="1">
         <v>1044</v>
       </c>
@@ -45644,7 +45643,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1047" s="1">
         <v>1045</v>
       </c>
@@ -45737,7 +45736,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1050" s="1">
         <v>1048</v>
       </c>
@@ -45766,7 +45765,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1051" s="1">
         <v>1049</v>
       </c>
@@ -45795,7 +45794,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1052" s="1">
         <v>1050</v>
       </c>
@@ -45891,7 +45890,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1055" s="1">
         <v>1053</v>
       </c>
@@ -46051,7 +46050,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1060" s="1">
         <v>1058</v>
       </c>
@@ -46080,7 +46079,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1061" s="1">
         <v>1059</v>
       </c>
@@ -46115,7 +46114,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1062" s="1">
         <v>1060</v>
       </c>
@@ -46176,7 +46175,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1064" s="1">
         <v>1062</v>
       </c>
@@ -46208,7 +46207,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1065" s="1">
         <v>1063</v>
       </c>
@@ -46237,7 +46236,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1066" s="1">
         <v>1064</v>
       </c>
@@ -46330,7 +46329,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1069" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1069" s="1">
         <v>1067</v>
       </c>
@@ -46359,7 +46358,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1070" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1070" s="1">
         <v>1068</v>
       </c>
@@ -46388,7 +46387,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1071" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1071" s="1">
         <v>1069</v>
       </c>
@@ -46449,7 +46448,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1073" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1073" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1073" s="1">
         <v>1071</v>
       </c>
@@ -46510,7 +46509,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1075" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1075" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1075" s="1">
         <v>1073</v>
       </c>
@@ -46603,7 +46602,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1078" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1078" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1078" s="1">
         <v>1076</v>
       </c>
@@ -46632,7 +46631,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="1079" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1079" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1079" s="1">
         <v>1077</v>
       </c>
@@ -46693,7 +46692,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1081" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1081" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1081" s="1">
         <v>1079</v>
       </c>
@@ -46786,7 +46785,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1084" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1084" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1084" s="1">
         <v>1082</v>
       </c>
@@ -46911,7 +46910,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1088" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1088" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1088" s="1">
         <v>1086</v>
       </c>
@@ -46943,7 +46942,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1089" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1089" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1089" s="1">
         <v>1087</v>
       </c>
@@ -46972,7 +46971,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="1090" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1090" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1090" s="1">
         <v>1088</v>
       </c>
@@ -47071,7 +47070,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1093" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1093" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1093" s="1">
         <v>1091</v>
       </c>
@@ -47132,7 +47131,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1095" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1095" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1095" s="1">
         <v>1093</v>
       </c>
@@ -47161,7 +47160,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="1096" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1096" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1096" s="1">
         <v>1094</v>
       </c>
@@ -47190,7 +47189,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="1097" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1097" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1097" s="1">
         <v>1095</v>
       </c>
@@ -47219,7 +47218,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="1098" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1098" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1098" s="1">
         <v>1096</v>
       </c>
@@ -47248,7 +47247,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1099" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1099" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1099" s="1">
         <v>1097</v>
       </c>
@@ -47280,7 +47279,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1100" s="1">
         <v>1098</v>
       </c>
@@ -47309,7 +47308,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1101" s="1">
         <v>1099</v>
       </c>
@@ -47408,7 +47407,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1104" s="1">
         <v>1102</v>
       </c>
@@ -47437,7 +47436,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1105" s="1">
         <v>1103</v>
       </c>
@@ -47466,7 +47465,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1106" s="1">
         <v>1104</v>
       </c>
@@ -47536,7 +47535,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1108" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1108" s="1">
         <v>1106</v>
       </c>
@@ -47600,7 +47599,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1110" s="1">
         <v>1108</v>
       </c>
@@ -47629,7 +47628,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1111" s="1">
         <v>1109</v>
       </c>
@@ -47728,7 +47727,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1114" s="1">
         <v>1112</v>
       </c>
@@ -47792,7 +47791,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1116" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1116" s="1">
         <v>1114</v>
       </c>
@@ -47885,7 +47884,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1119" s="1">
         <v>1117</v>
       </c>
@@ -47914,7 +47913,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="1120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1120" s="1">
         <v>1118</v>
       </c>
@@ -47943,7 +47942,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="1121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1121" s="1">
         <v>1119</v>
       </c>
@@ -47972,7 +47971,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="1122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1122" s="1">
         <v>1120</v>
       </c>
@@ -48001,7 +48000,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="1123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1123" s="1">
         <v>1121</v>
       </c>
@@ -48062,7 +48061,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1125" s="1">
         <v>1123</v>
       </c>
@@ -48123,7 +48122,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1127" s="1">
         <v>1125</v>
       </c>
@@ -48152,7 +48151,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="1128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1128" s="1">
         <v>1126</v>
       </c>
@@ -48245,7 +48244,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1131" s="1">
         <v>1129</v>
       </c>
@@ -48274,7 +48273,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1132" s="1">
         <v>1130</v>
       </c>
@@ -48303,7 +48302,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="1133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1133" s="1">
         <v>1131</v>
       </c>
@@ -48332,7 +48331,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="1134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1134" s="1">
         <v>1132</v>
       </c>
@@ -48393,7 +48392,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1136" s="1">
         <v>1134</v>
       </c>
@@ -48454,7 +48453,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1138" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1138" s="1">
         <v>1136</v>
       </c>
@@ -48579,7 +48578,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1142" s="1">
         <v>1140</v>
       </c>
@@ -48640,7 +48639,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1144" s="1">
         <v>1142</v>
       </c>
@@ -48669,7 +48668,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1145" s="1">
         <v>1143</v>
       </c>
@@ -48704,7 +48703,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="1146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1146" s="1">
         <v>1144</v>
       </c>
@@ -48765,7 +48764,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1148" s="1">
         <v>1146</v>
       </c>
@@ -48794,7 +48793,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="1149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1149" s="1">
         <v>1147</v>
       </c>
@@ -48823,7 +48822,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="1150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1150" s="1">
         <v>1148</v>
       </c>
@@ -48858,7 +48857,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1151" s="1">
         <v>1149</v>
       </c>
@@ -48925,7 +48924,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1153" s="1">
         <v>1151</v>
       </c>
@@ -48954,7 +48953,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="1154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1154" s="1">
         <v>1152</v>
       </c>
@@ -49015,7 +49014,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1156" s="1">
         <v>1154</v>
       </c>
@@ -49076,7 +49075,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1158" s="1">
         <v>1156</v>
       </c>
@@ -49137,7 +49136,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1160" s="1">
         <v>1158</v>
       </c>
@@ -49230,7 +49229,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1163" s="1">
         <v>1161</v>
       </c>
@@ -49259,7 +49258,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="1164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1164" s="1">
         <v>1162</v>
       </c>
@@ -49288,7 +49287,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="1165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1165" s="1">
         <v>1163</v>
       </c>
@@ -49445,7 +49444,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1170" s="1">
         <v>1168</v>
       </c>
@@ -49474,7 +49473,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="1171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1171" s="1">
         <v>1169</v>
       </c>
@@ -49503,7 +49502,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="1172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1172" s="1">
         <v>1170</v>
       </c>
@@ -49564,7 +49563,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1174" s="1">
         <v>1172</v>
       </c>
@@ -49625,7 +49624,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1176" s="1">
         <v>1174</v>
       </c>
@@ -49654,7 +49653,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1177" s="1">
         <v>1175</v>
       </c>
@@ -49683,7 +49682,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1178" s="1">
         <v>1176</v>
       </c>
@@ -49712,7 +49711,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="1179" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1179" s="1">
         <v>1177</v>
       </c>
@@ -49741,7 +49740,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="1180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1180" s="1">
         <v>1178</v>
       </c>
@@ -49834,7 +49833,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1183" s="1">
         <v>1181</v>
       </c>
@@ -49869,7 +49868,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="1184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1184" s="1">
         <v>1182</v>
       </c>
@@ -49898,7 +49897,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="1185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1185" s="1">
         <v>1183</v>
       </c>
@@ -49927,7 +49926,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="1186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1186" s="1">
         <v>1184</v>
       </c>
@@ -50020,7 +50019,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1189" s="1">
         <v>1187</v>
       </c>
@@ -50049,7 +50048,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1190" s="1">
         <v>1188</v>
       </c>
@@ -50078,7 +50077,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="1191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1191" s="1">
         <v>1189</v>
       </c>
@@ -50113,7 +50112,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="1192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1192" s="1">
         <v>1190</v>
       </c>
@@ -50142,7 +50141,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="1193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1193" s="1">
         <v>1191</v>
       </c>
@@ -50174,7 +50173,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1194" s="1">
         <v>1192</v>
       </c>
@@ -50235,7 +50234,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1196" s="1">
         <v>1194</v>
       </c>
@@ -50264,7 +50263,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="1197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1197" s="1">
         <v>1195</v>
       </c>
@@ -50325,7 +50324,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1199" s="1">
         <v>1197</v>
       </c>
@@ -50354,7 +50353,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="1200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1200" s="1">
         <v>1198</v>
       </c>
@@ -50447,7 +50446,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1203" s="1">
         <v>1201</v>
       </c>
@@ -50540,7 +50539,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1206" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1206" s="1">
         <v>1204</v>
       </c>
@@ -50569,7 +50568,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1207" s="1">
         <v>1205</v>
       </c>
@@ -50598,7 +50597,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="1208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1208" s="1">
         <v>1206</v>
       </c>
@@ -50665,7 +50664,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1210" s="1">
         <v>1208</v>
       </c>
@@ -50694,7 +50693,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1211" s="1">
         <v>1209</v>
       </c>
@@ -50723,7 +50722,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="1212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1212" s="1">
         <v>1210</v>
       </c>
@@ -50787,7 +50786,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1214" s="1">
         <v>1212</v>
       </c>
@@ -50851,7 +50850,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1216" s="1">
         <v>1214</v>
       </c>
@@ -50880,7 +50879,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1217" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1217" s="1">
         <v>1215</v>
       </c>
@@ -50909,7 +50908,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="1218" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1218" s="1">
         <v>1216</v>
       </c>
@@ -50938,7 +50937,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="1219" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1219" s="1">
         <v>1217</v>
       </c>
@@ -50967,7 +50966,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="1220" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1220" s="1">
         <v>1218</v>
       </c>
@@ -50996,7 +50995,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="1221" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1221" s="1">
         <v>1219</v>
       </c>
@@ -51025,7 +51024,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="1222" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1222" s="1">
         <v>1220</v>
       </c>
@@ -51054,7 +51053,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="1223" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1223" s="1">
         <v>1221</v>
       </c>
@@ -51147,7 +51146,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1226" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1226" s="1">
         <v>1224</v>
       </c>
@@ -51176,7 +51175,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="1227" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1227" s="1">
         <v>1225</v>
       </c>
@@ -51237,7 +51236,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1229" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1229" s="1">
         <v>1227</v>
       </c>
@@ -51298,7 +51297,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1231" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1231" s="1">
         <v>1229</v>
       </c>
@@ -51368,7 +51367,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1233" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1233" s="1">
         <v>1231</v>
       </c>
@@ -51397,7 +51396,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1234" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1234" s="1">
         <v>1232</v>
       </c>
@@ -51435,7 +51434,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1235" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1235" s="1">
         <v>1233</v>
       </c>
@@ -51464,7 +51463,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="1236" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1236" s="1">
         <v>1234</v>
       </c>
@@ -51493,7 +51492,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="1237" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1237" s="1">
         <v>1235</v>
       </c>
@@ -51528,7 +51527,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1238" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1238" s="1">
         <v>1236</v>
       </c>
@@ -51589,7 +51588,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1240" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1240" s="1">
         <v>1238</v>
       </c>
@@ -51618,7 +51617,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="1241" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1241" s="1">
         <v>1239</v>
       </c>
@@ -51647,7 +51646,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1242" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1242" s="1">
         <v>1240</v>
       </c>
@@ -51676,7 +51675,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1243" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1243" s="1">
         <v>1241</v>
       </c>
@@ -51705,7 +51704,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="1244" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1244" s="1">
         <v>1242</v>
       </c>
@@ -51862,7 +51861,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1249" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1249" s="1">
         <v>1247</v>
       </c>
@@ -52054,7 +52053,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1255" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1255" s="1">
         <v>1253</v>
       </c>
@@ -52083,7 +52082,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="1256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1256" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1256" s="1">
         <v>1254</v>
       </c>
@@ -52211,7 +52210,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1260" s="1">
         <v>1258</v>
       </c>
@@ -52240,7 +52239,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="1261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1261" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1261" s="1">
         <v>1259</v>
       </c>
@@ -52269,7 +52268,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="1262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1262" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1262" s="1">
         <v>1260</v>
       </c>
@@ -52298,7 +52297,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="1263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1263" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1263" s="1">
         <v>1261</v>
       </c>
@@ -52327,7 +52326,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="1264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1264" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1264" s="1">
         <v>1262</v>
       </c>
@@ -52359,7 +52358,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1265" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1265" s="1">
         <v>1263</v>
       </c>
@@ -52452,7 +52451,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1268" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1268" s="1">
         <v>1266</v>
       </c>
@@ -52481,7 +52480,7 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="1269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1269" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1269" s="1">
         <v>1267</v>
       </c>
@@ -52510,7 +52509,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="1270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1270" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1270" s="1">
         <v>1268</v>
       </c>
@@ -52539,7 +52538,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1271" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1271" s="1">
         <v>1269</v>
       </c>
@@ -52568,7 +52567,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="1272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1272" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1272" s="1">
         <v>1270</v>
       </c>
@@ -52597,7 +52596,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1273" s="1">
         <v>1271</v>
       </c>
@@ -52626,7 +52625,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="1274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1274" s="1">
         <v>1272</v>
       </c>
@@ -52655,7 +52654,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="1275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1275" s="1">
         <v>1273</v>
       </c>
@@ -52716,7 +52715,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1277" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1277" s="1">
         <v>1275</v>
       </c>
@@ -52745,7 +52744,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="1278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1278" s="1">
         <v>1276</v>
       </c>
@@ -52774,7 +52773,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="1279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1279" s="1">
         <v>1277</v>
       </c>
@@ -52838,7 +52837,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1281" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1281" s="1">
         <v>1279</v>
       </c>
@@ -52867,7 +52866,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="1282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1282" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1282" s="1">
         <v>1280</v>
       </c>
@@ -52902,7 +52901,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1283" s="1">
         <v>1281</v>
       </c>
@@ -52966,7 +52965,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1285" s="1">
         <v>1283</v>
       </c>
@@ -52995,7 +52994,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="1286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1286" s="1">
         <v>1284</v>
       </c>
@@ -53024,7 +53023,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1287" s="1">
         <v>1285</v>
       </c>
@@ -53184,7 +53183,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1292" s="1">
         <v>1290</v>
       </c>
@@ -53245,7 +53244,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1294" s="1">
         <v>1292</v>
       </c>
@@ -53274,7 +53273,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="1295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1295" s="1">
         <v>1293</v>
       </c>
@@ -53303,7 +53302,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1296" s="1">
         <v>1294</v>
       </c>
@@ -53332,7 +53331,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="1297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1297" s="1">
         <v>1295</v>
       </c>
@@ -53425,7 +53424,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1300" s="1">
         <v>1298</v>
       </c>
@@ -53454,7 +53453,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="1301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1301" s="1">
         <v>1299</v>
       </c>
@@ -53483,7 +53482,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="1302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1302" s="1">
         <v>1300</v>
       </c>
@@ -53544,7 +53543,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1304" s="1">
         <v>1302</v>
       </c>
@@ -53573,7 +53572,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="1305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1305" s="1">
         <v>1303</v>
       </c>
@@ -53634,7 +53633,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1307" s="1">
         <v>1305</v>
       </c>
@@ -53727,7 +53726,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1310" s="1">
         <v>1308</v>
       </c>
@@ -53788,7 +53787,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1312" s="1">
         <v>1310</v>
       </c>
@@ -53817,7 +53816,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="1313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1313" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1313" s="1">
         <v>1311</v>
       </c>
@@ -53846,7 +53845,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1314" s="1">
         <v>1312</v>
       </c>
@@ -53875,7 +53874,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="1315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1315" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1315" s="1">
         <v>1313</v>
       </c>
@@ -53910,7 +53909,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="1316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1316" s="1">
         <v>1314</v>
       </c>
@@ -53939,7 +53938,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="1317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1317" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1317" s="1">
         <v>1315</v>
       </c>
@@ -53971,7 +53970,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1318" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1318" s="1">
         <v>1316</v>
       </c>
@@ -54000,7 +53999,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1319" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1319" s="1">
         <v>1317</v>
       </c>
@@ -54093,7 +54092,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1322" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1322" s="1">
         <v>1320</v>
       </c>
@@ -54154,7 +54153,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1324" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1324" s="1">
         <v>1322</v>
       </c>
@@ -54247,7 +54246,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1327" s="1">
         <v>1325</v>
       </c>
@@ -54282,7 +54281,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="1328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1328" s="1">
         <v>1326</v>
       </c>
@@ -54439,7 +54438,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1333" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1333" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1333" s="1">
         <v>1331</v>
       </c>
@@ -54532,7 +54531,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1336" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1336" s="1">
         <v>1334</v>
       </c>
@@ -54593,7 +54592,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1338" s="1">
         <v>1336</v>
       </c>
@@ -54625,7 +54624,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1339" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1339" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1339" s="1">
         <v>1337</v>
       </c>
@@ -54686,7 +54685,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1341" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1341" s="1">
         <v>1339</v>
       </c>
@@ -54721,7 +54720,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="1342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1342" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1342" s="1">
         <v>1340</v>
       </c>
@@ -54750,7 +54749,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="1343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1343" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1343" s="1">
         <v>1341</v>
       </c>
@@ -54814,7 +54813,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1345" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1345" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1345" s="1">
         <v>1343</v>
       </c>
@@ -54846,7 +54845,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1346" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1346" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1346" s="1">
         <v>1344</v>
       </c>
@@ -54910,7 +54909,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1348" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1348" s="1">
         <v>1346</v>
       </c>
@@ -54939,7 +54938,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="1349" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1349" s="1">
         <v>1347</v>
       </c>
@@ -54968,7 +54967,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="1350" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1350" s="1">
         <v>1348</v>
       </c>
@@ -54997,7 +54996,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="1351" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1351" s="1">
         <v>1349</v>
       </c>
@@ -55026,7 +55025,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="1352" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1352" s="1">
         <v>1350</v>
       </c>
@@ -55055,7 +55054,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="1353" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1353" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1353" s="1">
         <v>1351</v>
       </c>
@@ -55116,7 +55115,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1355" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1355" s="1">
         <v>1353</v>
       </c>
@@ -55145,7 +55144,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="1356" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1356" s="1">
         <v>1354</v>
       </c>
@@ -55174,7 +55173,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="1357" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1357" s="1">
         <v>1355</v>
       </c>
@@ -55267,7 +55266,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1360" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1360" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1360" s="1">
         <v>1358</v>
       </c>
@@ -55305,7 +55304,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1361" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1361" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1361" s="1">
         <v>1359</v>
       </c>
@@ -55334,7 +55333,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="1362" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1362" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1362" s="1">
         <v>1360</v>
       </c>
@@ -55363,7 +55362,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="1363" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1363" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1363" s="1">
         <v>1361</v>
       </c>
@@ -55392,7 +55391,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1364" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1364" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1364" s="1">
         <v>1362</v>
       </c>
@@ -55421,7 +55420,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="1365" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1365" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1365" s="1">
         <v>1363</v>
       </c>
@@ -55482,7 +55481,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1367" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1367" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1367" s="1">
         <v>1365</v>
       </c>
@@ -55511,7 +55510,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1368" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1368" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1368" s="1">
         <v>1366</v>
       </c>
@@ -55540,7 +55539,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1369" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1369" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1369" s="1">
         <v>1367</v>
       </c>
@@ -55569,7 +55568,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="1370" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1370" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1370" s="1">
         <v>1368</v>
       </c>
@@ -55697,7 +55696,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1374" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1374" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1374" s="1">
         <v>1372</v>
       </c>
@@ -55726,7 +55725,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="1375" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1375" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1375" s="1">
         <v>1373</v>
       </c>
@@ -55764,7 +55763,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1376" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1376" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1376" s="1">
         <v>1374</v>
       </c>
@@ -55793,7 +55792,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1377" s="1">
         <v>1375</v>
       </c>
@@ -55825,7 +55824,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1378" s="1">
         <v>1376</v>
       </c>
@@ -55854,7 +55853,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="1379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1379" s="1">
         <v>1377</v>
       </c>
@@ -55883,7 +55882,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="1380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1380" s="1">
         <v>1378</v>
       </c>
@@ -55912,7 +55911,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="1381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1381" s="1">
         <v>1379</v>
       </c>
@@ -55941,7 +55940,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="1382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1382" s="1">
         <v>1380</v>
       </c>
@@ -56002,7 +56001,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1384" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1384" s="1">
         <v>1382</v>
       </c>
@@ -56037,7 +56036,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1385" s="1">
         <v>1383</v>
       </c>
@@ -56066,7 +56065,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1386" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1386" s="1">
         <v>1384</v>
       </c>
@@ -56159,7 +56158,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1389" s="1">
         <v>1387</v>
       </c>
@@ -56188,7 +56187,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1390" s="1">
         <v>1388</v>
       </c>
@@ -56217,7 +56216,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="1391" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1391" s="1">
         <v>1389</v>
       </c>
@@ -56246,7 +56245,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1392" s="1">
         <v>1390</v>
       </c>
@@ -56275,7 +56274,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="1393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1393" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1393" s="1">
         <v>1391</v>
       </c>
@@ -56304,7 +56303,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1394" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1394" s="1">
         <v>1392</v>
       </c>
@@ -56333,7 +56332,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="1395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1395" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1395" s="1">
         <v>1393</v>
       </c>
@@ -56362,7 +56361,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="1396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1396" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1396" s="1">
         <v>1394</v>
       </c>
@@ -56423,7 +56422,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1398" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1398" s="1">
         <v>1396</v>
       </c>
@@ -56580,7 +56579,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1403" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1403" s="1">
         <v>1401</v>
       </c>
@@ -56609,7 +56608,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="1404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1404" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1404" s="1">
         <v>1402</v>
       </c>
@@ -56638,7 +56637,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="1405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1405" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1405" s="1">
         <v>1403</v>
       </c>
@@ -56667,7 +56666,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1406" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1406" s="1">
         <v>1404</v>
       </c>
@@ -56731,7 +56730,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1408" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1408" s="1">
         <v>1406</v>
       </c>
@@ -56824,7 +56823,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1411" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1411" s="1">
         <v>1409</v>
       </c>
@@ -56949,7 +56948,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1415" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1415" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1415" s="1">
         <v>1413</v>
       </c>
@@ -56978,7 +56977,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1416" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1416" s="1">
         <v>1414</v>
       </c>
@@ -57202,7 +57201,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1423" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1423" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1423" s="1">
         <v>1421</v>
       </c>
@@ -57295,7 +57294,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1426" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1426" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1426" s="1">
         <v>1424</v>
       </c>
@@ -57324,7 +57323,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="1427" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1427" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1427" s="1">
         <v>1425</v>
       </c>
@@ -57356,7 +57355,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1428" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1428" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1428" s="1">
         <v>1426</v>
       </c>
@@ -57484,7 +57483,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1432" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1432" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1432" s="1">
         <v>1430</v>
       </c>
@@ -57577,7 +57576,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1435" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1435" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1435" s="1">
         <v>1433</v>
       </c>
@@ -57606,7 +57605,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1436" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1436" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1436" s="1">
         <v>1434</v>
       </c>
@@ -57635,7 +57634,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="1437" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1437" s="1">
         <v>1435</v>
       </c>
@@ -57801,7 +57800,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1442" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1442" s="1">
         <v>1440</v>
       </c>
@@ -57830,7 +57829,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="1443" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1443" s="1">
         <v>1441</v>
       </c>
@@ -57859,7 +57858,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="1444" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1444" s="1">
         <v>1442</v>
       </c>
@@ -57888,7 +57887,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="1445" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1445" s="1">
         <v>1443</v>
       </c>
@@ -57917,7 +57916,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="1446" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1446" s="1">
         <v>1444</v>
       </c>
@@ -58112,7 +58111,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1452" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1452" s="1">
         <v>1450</v>
       </c>
@@ -58173,7 +58172,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1454" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1454" s="1">
         <v>1452</v>
       </c>
@@ -58202,7 +58201,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="1455" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1455" s="1">
         <v>1453</v>
       </c>
@@ -58234,7 +58233,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1456" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1456" s="1">
         <v>1454</v>
       </c>
@@ -58263,7 +58262,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="1457" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1457" s="1">
         <v>1455</v>
       </c>
@@ -58292,7 +58291,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="1458" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1458" s="1">
         <v>1456</v>
       </c>
@@ -58321,7 +58320,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="1459" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1459" s="1">
         <v>1457</v>
       </c>
@@ -58350,7 +58349,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="1460" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1460" s="1">
         <v>1458</v>
       </c>
@@ -58379,7 +58378,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="1461" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1461" s="1">
         <v>1459</v>
       </c>
@@ -58408,7 +58407,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="1462" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1462" s="1">
         <v>1460</v>
       </c>
@@ -58536,7 +58535,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1466" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1466" s="1">
         <v>1464</v>
       </c>
@@ -58565,7 +58564,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="1467" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1467" s="1">
         <v>1465</v>
       </c>
@@ -58629,7 +58628,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1469" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1469" s="1">
         <v>1467</v>
       </c>
@@ -58658,7 +58657,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="1470" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1470" s="1">
         <v>1468</v>
       </c>
@@ -58687,7 +58686,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1471" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1471" s="1">
         <v>1469</v>
       </c>
@@ -58719,7 +58718,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1472" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1472" s="1">
         <v>1470</v>
       </c>
@@ -58748,7 +58747,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1473" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1473" s="1">
         <v>1471</v>
       </c>
@@ -58777,7 +58776,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="1474" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1474" s="1">
         <v>1472</v>
       </c>
@@ -58809,7 +58808,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1475" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1475" s="1">
         <v>1473</v>
       </c>
@@ -58838,7 +58837,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="1476" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1476" s="1">
         <v>1474</v>
       </c>
@@ -58902,7 +58901,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1478" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1478" s="1">
         <v>1476</v>
       </c>
@@ -58966,7 +58965,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1480" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1480" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1480" s="1">
         <v>1478</v>
       </c>
@@ -58995,7 +58994,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="1481" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1481" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1481" s="1">
         <v>1479</v>
       </c>
@@ -59059,7 +59058,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1483" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1483" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1483" s="1">
         <v>1481</v>
       </c>
@@ -59088,7 +59087,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1484" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1484" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1484" s="1">
         <v>1482</v>
       </c>
@@ -59152,7 +59151,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1486" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1486" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1486" s="1">
         <v>1484</v>
       </c>
@@ -59181,7 +59180,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="1487" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1487" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1487" s="1">
         <v>1485</v>
       </c>
@@ -59210,7 +59209,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="1488" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1488" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1488" s="1">
         <v>1486</v>
       </c>
@@ -59370,7 +59369,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1493" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1493" s="1">
         <v>1491</v>
       </c>
@@ -59399,7 +59398,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1494" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1494" s="1">
         <v>1492</v>
       </c>
@@ -59428,7 +59427,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1495" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1495" s="1">
         <v>1493</v>
       </c>
@@ -59457,7 +59456,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1496" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1496" s="1">
         <v>1494</v>
       </c>
@@ -59486,7 +59485,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="1497" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1497" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1497" s="1">
         <v>1495</v>
       </c>
@@ -59515,7 +59514,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="1498" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1498" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1498" s="1">
         <v>1496</v>
       </c>
@@ -59576,7 +59575,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1500" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1500" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1500" s="1">
         <v>1498</v>
       </c>
@@ -59605,7 +59604,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="1501" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1501" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1501" s="1">
         <v>1499</v>
       </c>
@@ -59669,7 +59668,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1503" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1503" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1503" s="1">
         <v>1501</v>
       </c>
@@ -59698,7 +59697,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="1504" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1504" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1504" s="1">
         <v>1502</v>
       </c>
@@ -59759,7 +59758,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1506" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1506" s="1">
         <v>1504</v>
       </c>
@@ -59788,7 +59787,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="1507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1507" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1507" s="1">
         <v>1505</v>
       </c>
@@ -59820,7 +59819,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1508" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1508" s="1">
         <v>1506</v>
       </c>
@@ -59849,7 +59848,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="1509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1509" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1509" s="1">
         <v>1507</v>
       </c>
@@ -59879,13 +59878,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1509" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="race-color"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1509" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
